--- a/data/trans_orig/rlab_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B59B3F4B-5E07-46E3-955D-EBF7362E0FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB6109C-5C3D-42AF-8652-565408129E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{968E08DE-DBCD-4D1D-B78C-7B723A4DFDF9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C74C2B07-B0C2-4484-8077-1904BDE25171}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>64,63%</t>
   </si>
   <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,58 +104,55 @@
     <t>23,02%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>Muchas veces</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,25 +161,28 @@
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,0%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,88 +194,91 @@
     <t>72,83%</t>
   </si>
   <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>4,19%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
   </si>
   <si>
     <t>1,54%</t>
@@ -293,7 +296,7 @@
     <t>1,83%</t>
   </si>
   <si>
-    <t>3,25%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -302,58 +305,64 @@
     <t>85,67%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>91,44%</t>
   </si>
   <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>9,78%</t>
   </si>
   <si>
-    <t>6,96%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>10,55%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>1,12%</t>
@@ -362,37 +371,37 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,0%</t>
+    <t>3,56%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,4%</t>
   </si>
   <si>
     <t>2,26%</t>
@@ -401,109 +410,109 @@
     <t>73,95%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -918,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017281F4-3B97-4D2E-B49C-14E8E16116D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27FE4D2-52A3-4105-9D08-FA3E015CB264}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1144,13 +1153,13 @@
         <v>32153</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -1159,13 +1168,13 @@
         <v>6245</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -1174,19 +1183,19 @@
         <v>38398</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>13</v>
@@ -1195,13 +1204,13 @@
         <v>14222</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1210,13 +1219,13 @@
         <v>2967</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -1225,13 +1234,13 @@
         <v>17190</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,7 +1452,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>33</v>
@@ -1455,10 +1464,10 @@
         <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -1467,13 +1476,13 @@
         <v>8920</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -1482,13 +1491,13 @@
         <v>42505</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,7 +1553,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1556,13 +1565,13 @@
         <v>347240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>255</v>
@@ -1571,13 +1580,13 @@
         <v>265326</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>588</v>
@@ -1586,13 +1595,13 @@
         <v>612566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,13 +1616,13 @@
         <v>39653</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -1622,13 +1631,13 @@
         <v>18895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -1637,13 +1646,13 @@
         <v>58548</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,13 +1667,13 @@
         <v>13764</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1673,13 +1682,13 @@
         <v>3256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -1688,19 +1697,19 @@
         <v>17019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -1709,13 +1718,13 @@
         <v>4653</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1724,13 +1733,13 @@
         <v>2700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1739,13 +1748,13 @@
         <v>7353</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,13 +1822,13 @@
         <v>1408996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>836</v>
@@ -1828,13 +1837,13 @@
         <v>871937</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>2182</v>
@@ -1843,13 +1852,13 @@
         <v>2280933</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,13 +1873,13 @@
         <v>314662</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -1879,13 +1888,13 @@
         <v>101450</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>395</v>
@@ -1894,13 +1903,13 @@
         <v>416112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,13 +1924,13 @@
         <v>129296</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -1930,13 +1939,13 @@
         <v>35251</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -1945,19 +1954,19 @@
         <v>164547</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>50</v>
@@ -1966,13 +1975,13 @@
         <v>52460</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -1981,13 +1990,13 @@
         <v>14587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -1996,13 +2005,13 @@
         <v>67047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB6109C-5C3D-42AF-8652-565408129E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAC887CA-F40D-4EA1-9DBD-D18F10508C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C74C2B07-B0C2-4484-8077-1904BDE25171}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B11D255F-062A-4EAA-84EA-6D3061051516}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>64,63%</t>
   </si>
   <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,7 +104,7 @@
     <t>23,02%</t>
   </si>
   <si>
-    <t>18,84%</t>
+    <t>18,75%</t>
   </si>
   <si>
     <t>27,86%</t>
@@ -113,46 +113,49 @@
     <t>13,28%</t>
   </si>
   <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -161,337 +164,334 @@
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>3,64%</t>
@@ -500,19 +500,16 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>2,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27FE4D2-52A3-4105-9D08-FA3E015CB264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10949A97-BFC4-479B-870F-EC26B7685F16}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1153,13 +1150,13 @@
         <v>32153</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -1168,13 +1165,13 @@
         <v>6245</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -1183,19 +1180,19 @@
         <v>38398</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>13</v>
@@ -1204,13 +1201,13 @@
         <v>14222</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1219,13 +1216,13 @@
         <v>2967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -1234,13 +1231,13 @@
         <v>17190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1255,13 +1252,13 @@
         <v>375520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -1270,13 +1267,13 @@
         <v>152469</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
@@ -1285,18 +1282,18 @@
         <v>527989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1308,13 +1305,13 @@
         <v>819070</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>464</v>
@@ -1323,13 +1320,13 @@
         <v>483608</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>1246</v>
@@ -1338,13 +1335,13 @@
         <v>1302678</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1359,13 +1356,13 @@
         <v>188550</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -1374,13 +1371,13 @@
         <v>62300</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>237</v>
@@ -1389,13 +1386,13 @@
         <v>250851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,13 +1407,13 @@
         <v>83379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -1425,13 +1422,13 @@
         <v>25751</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -1440,19 +1437,19 @@
         <v>109130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>33</v>
@@ -1461,10 +1458,10 @@
         <v>33585</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>80</v>
@@ -1512,13 +1509,13 @@
         <v>1124584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>555</v>
@@ -1527,13 +1524,13 @@
         <v>580580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1632</v>
@@ -1542,13 +1539,13 @@
         <v>1705164</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,7 +1706,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -1736,10 +1733,10 @@
         <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1748,13 +1745,13 @@
         <v>7353</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1766,13 @@
         <v>405310</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>278</v>
@@ -1784,13 +1781,13 @@
         <v>290176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>667</v>
@@ -1799,13 +1796,13 @@
         <v>695486</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1819,13 @@
         <v>1408996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>836</v>
@@ -1837,13 +1834,13 @@
         <v>871937</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>2182</v>
@@ -1852,13 +1849,13 @@
         <v>2280933</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1870,13 @@
         <v>314662</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -1888,13 +1885,13 @@
         <v>101450</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>395</v>
@@ -1903,13 +1900,13 @@
         <v>416112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1921,13 @@
         <v>129296</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -1939,13 +1936,13 @@
         <v>35251</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -1954,19 +1951,19 @@
         <v>164547</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>50</v>
@@ -1975,7 +1972,7 @@
         <v>52460</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>151</v>
@@ -2008,10 +2005,10 @@
         <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,13 +2023,13 @@
         <v>1905414</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>979</v>
@@ -2041,13 +2038,13 @@
         <v>1023226</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>2803</v>
@@ -2056,18 +2053,18 @@
         <v>2928640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAC887CA-F40D-4EA1-9DBD-D18F10508C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E83B7B9-EEB3-48C3-9FBB-5FC07B14F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B11D255F-062A-4EAA-84EA-6D3061051516}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD413BCE-C46E-4030-A915-7074266727E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>64,63%</t>
   </si>
   <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>23,02%</t>
   </si>
   <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>8,56%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>1,95%</t>
@@ -176,16 +176,13 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>5,78%</t>
+    <t>5,32%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>2,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,64 +194,64 @@
     <t>72,83%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -263,253 +260,250 @@
     <t>2,96%</t>
   </si>
   <si>
-    <t>6,53%</t>
+    <t>6,33%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>4,19%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10949A97-BFC4-479B-870F-EC26B7685F16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774E5B22-5B9A-42D2-9AAD-AFBB0920E97B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1237,7 +1231,7 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1252,13 +1246,13 @@
         <v>375520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -1267,13 +1261,13 @@
         <v>152469</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
@@ -1282,18 +1276,18 @@
         <v>527989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1305,13 +1299,13 @@
         <v>819070</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>464</v>
@@ -1320,13 +1314,13 @@
         <v>483608</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>1246</v>
@@ -1335,13 +1329,13 @@
         <v>1302678</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1356,13 +1350,13 @@
         <v>188550</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -1371,13 +1365,13 @@
         <v>62300</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>237</v>
@@ -1386,13 +1380,13 @@
         <v>250851</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,13 +1401,13 @@
         <v>83379</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -1422,13 +1416,13 @@
         <v>25751</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -1437,13 +1431,13 @@
         <v>109130</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,13 +1452,13 @@
         <v>33585</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -1473,13 +1467,13 @@
         <v>8920</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -1488,13 +1482,13 @@
         <v>42505</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,13 +1503,13 @@
         <v>1124584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>555</v>
@@ -1524,13 +1518,13 @@
         <v>580580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1632</v>
@@ -1539,18 +1533,18 @@
         <v>1705164</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1562,13 +1556,13 @@
         <v>347240</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>255</v>
@@ -1577,13 +1571,13 @@
         <v>265326</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>588</v>
@@ -1592,13 +1586,13 @@
         <v>612566</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,13 +1607,13 @@
         <v>39653</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -1628,13 +1622,13 @@
         <v>18895</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -1643,13 +1637,13 @@
         <v>58548</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,13 +1658,13 @@
         <v>13764</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1679,13 +1673,13 @@
         <v>3256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -1694,13 +1688,13 @@
         <v>17019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1709,13 @@
         <v>4653</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1730,13 +1724,13 @@
         <v>2700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1745,13 +1739,13 @@
         <v>7353</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1760,13 @@
         <v>405310</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>278</v>
@@ -1781,13 +1775,13 @@
         <v>290176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>667</v>
@@ -1796,13 +1790,13 @@
         <v>695486</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1813,13 @@
         <v>1408996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>836</v>
@@ -1834,13 +1828,13 @@
         <v>871937</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>2182</v>
@@ -1849,13 +1843,13 @@
         <v>2280933</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1864,13 @@
         <v>314662</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -1885,13 +1879,13 @@
         <v>101450</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>395</v>
@@ -1900,13 +1894,13 @@
         <v>416112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1915,13 @@
         <v>129296</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -1936,13 +1930,13 @@
         <v>35251</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -1951,13 +1945,13 @@
         <v>164547</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1966,13 @@
         <v>52460</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -1987,13 +1981,13 @@
         <v>14587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -2002,13 +1996,13 @@
         <v>67047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2017,13 @@
         <v>1905414</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>979</v>
@@ -2038,13 +2032,13 @@
         <v>1023226</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>2803</v>
@@ -2053,18 +2047,18 @@
         <v>2928640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E83B7B9-EEB3-48C3-9FBB-5FC07B14F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A5EE85-D8D7-42A8-8A87-846BCF1E578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD413BCE-C46E-4030-A915-7074266727E6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B5F5CA37-7A7A-4BB0-98B3-7A71DB5371BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774E5B22-5B9A-42D2-9AAD-AFBB0920E97B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7BCBC4-C6B8-472D-8A73-DD9F8DD2AE20}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1568,7 +1568,7 @@
         <v>255</v>
       </c>
       <c r="I14" s="7">
-        <v>265326</v>
+        <v>265327</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -1772,7 +1772,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
